--- a/학습자료/단답형/영어_복습_전치사 구분.xlsx
+++ b/학습자료/단답형/영어_복습_전치사 구분.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>구분</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +471,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,6 +493,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -500,6 +515,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -517,6 +537,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +559,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -551,6 +581,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -568,6 +603,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -585,6 +625,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -602,6 +647,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -619,6 +669,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -636,6 +691,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -653,6 +713,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -670,6 +735,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -687,6 +757,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -704,6 +779,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -721,6 +801,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -738,6 +823,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -755,6 +845,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -772,6 +867,11 @@
           <t>전치사 구분</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -787,6 +887,297 @@
       <c r="C21" t="inlineStr">
         <is>
           <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>be susceptible to : ~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>accuse A of B : A를 B로 기소[고소]하다</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>attribute A to B : A를 B의 탓으로 돌리다</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>see off : 배웅하다, 쫓아내다, 이기다</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>rule out : 배제하다</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>be sentenced to : ~의 형을 받다</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>resort to : ~에 기대다, 의지하다</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>make up with : ~와 화해하다</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>up with</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>make away : 도망가다</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>make over : 양도하다, 고치다</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>make against : ~에게 불리하게 작용하다</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>against</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>increase in : ~에 있어서 증가하다</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">in </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>talk A out of B : A가 B 못하도록 설득하다</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>out of</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>전치사 구분</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>오늘</t>
         </is>
       </c>
     </row>
